--- a/ot2protocol/Ouzo_OT2_Sampling/Run_09_24_20/09_24_2020_Scan1_Trial1.xlsx
+++ b/ot2protocol/Ouzo_OT2_Sampling/Run_09_24_20/09_24_2020_Scan1_Trial1.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Experiments\Edwin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\OT2Protocols\ot2protocol\Ouzo_OT2_Sampling\Run_09_24_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC25113-A0E2-49B7-9600-453D486A13FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9435" windowHeight="6915"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">471771376</definedName>
     <definedName name="MethodPointer2">413</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Software Version</t>
   </si>
@@ -391,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -874,11 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:AR80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7211,4 +7223,2901 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06341D6-410B-482C-A040-C03AA35619E6}">
+  <dimension ref="A1:AQ22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F2">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L2">
+        <v>2E-3</v>
+      </c>
+      <c r="M2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
+      </c>
+      <c r="O2">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>2E-3</v>
+      </c>
+      <c r="R2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T2">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="U2">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="V2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="X2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AD2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AE2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AF2">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AG2">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AH2">
+        <v>-1E-3</v>
+      </c>
+      <c r="AI2">
+        <v>0.02</v>
+      </c>
+      <c r="AJ2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AK2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AL2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AN2">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AO2">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AP2">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.109</v>
+      </c>
+      <c r="J3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+      <c r="O3">
+        <v>2E-3</v>
+      </c>
+      <c r="P3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T3">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="U3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="V3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="X3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Y3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AA3">
+        <v>-2E-3</v>
+      </c>
+      <c r="AB3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AD3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1E-3</v>
+      </c>
+      <c r="AF3">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AG3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AK3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AL3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AN3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="AO3">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AP3">
+        <v>1E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>320</v>
+      </c>
+      <c r="B4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
+        <v>0.03</v>
+      </c>
+      <c r="I4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L4">
+        <v>-2E-3</v>
+      </c>
+      <c r="M4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="N4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R4">
+        <v>0.01</v>
+      </c>
+      <c r="S4">
+        <v>1E-3</v>
+      </c>
+      <c r="T4">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="U4">
+        <v>-1E-3</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y4">
+        <v>2E-3</v>
+      </c>
+      <c r="Z4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AB4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AD4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AG4">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AK4">
+        <v>0.01</v>
+      </c>
+      <c r="AL4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AN4">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AO4">
+        <v>-2E-3</v>
+      </c>
+      <c r="AP4">
+        <v>2E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>330</v>
+      </c>
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>-0.02</v>
+      </c>
+      <c r="G5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K5">
+        <v>2E-3</v>
+      </c>
+      <c r="L5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M5">
+        <v>-0.01</v>
+      </c>
+      <c r="N5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O5">
+        <v>-1E-3</v>
+      </c>
+      <c r="P5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>-2E-3</v>
+      </c>
+      <c r="T5">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="U5">
+        <v>-1E-3</v>
+      </c>
+      <c r="V5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="X5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y5">
+        <v>-2E-3</v>
+      </c>
+      <c r="Z5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AB5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AD5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AE5">
+        <v>-1E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AG5">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-2E-3</v>
+      </c>
+      <c r="AI5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AK5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AM5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AO5">
+        <v>-2E-3</v>
+      </c>
+      <c r="AP5">
+        <v>2E-3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>340</v>
+      </c>
+      <c r="B6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F6">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="M6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R6">
+        <v>2E-3</v>
+      </c>
+      <c r="S6">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="T6">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="U6">
+        <v>-1E-3</v>
+      </c>
+      <c r="V6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="W6">
+        <v>0.05</v>
+      </c>
+      <c r="X6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Y6">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1E-3</v>
+      </c>
+      <c r="AA6">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AB6">
+        <v>2E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AD6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AE6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AF6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AG6">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="AH6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AI6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AK6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AN6">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AO6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AP6">
+        <v>2E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="N7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O7">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="P7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R7">
+        <v>-2E-3</v>
+      </c>
+      <c r="S7">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="T7">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>-2E-3</v>
+      </c>
+      <c r="V7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="X7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Y7">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="Z7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA7">
+        <v>-0.01</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AE7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AF7">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AG7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AH7">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AI7">
+        <v>2E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AK7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AM7">
+        <v>2E-3</v>
+      </c>
+      <c r="AN7">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AO7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>360</v>
+      </c>
+      <c r="B8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.03</v>
+      </c>
+      <c r="K8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="L8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="N8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="P8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="S8">
+        <v>-0.01</v>
+      </c>
+      <c r="T8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="U8">
+        <v>-2E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="Z8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AA8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AB8">
+        <v>-1E-3</v>
+      </c>
+      <c r="AC8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AE8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AG8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AH8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AK8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>370</v>
+      </c>
+      <c r="B9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+      <c r="K9">
+        <v>2E-3</v>
+      </c>
+      <c r="L9">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O9">
+        <v>-1E-3</v>
+      </c>
+      <c r="P9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="T9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="U9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y9">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>-2E-3</v>
+      </c>
+      <c r="AB9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AD9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AH9">
+        <v>1E-3</v>
+      </c>
+      <c r="AI9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AK9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>2E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-2E-3</v>
+      </c>
+      <c r="AO9">
+        <v>2E-3</v>
+      </c>
+      <c r="AP9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>380</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.01</v>
+      </c>
+      <c r="T10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U10">
+        <v>0.01</v>
+      </c>
+      <c r="V10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="X10">
+        <v>0.01</v>
+      </c>
+      <c r="Y10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA10">
+        <v>0.01</v>
+      </c>
+      <c r="AB10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AD10">
+        <v>0.01</v>
+      </c>
+      <c r="AE10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AH10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI10">
+        <v>0.01</v>
+      </c>
+      <c r="AJ10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AK10">
+        <v>0.01</v>
+      </c>
+      <c r="AL10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO10">
+        <v>0.01</v>
+      </c>
+      <c r="AP10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>390</v>
+      </c>
+      <c r="B11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.01</v>
+      </c>
+      <c r="M11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.01</v>
+      </c>
+      <c r="P11">
+        <v>0.01</v>
+      </c>
+      <c r="Q11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.01</v>
+      </c>
+      <c r="T11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="X11">
+        <v>0.01</v>
+      </c>
+      <c r="Y11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AB11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD11">
+        <v>0.01</v>
+      </c>
+      <c r="AE11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AG11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AH11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI11">
+        <v>0.01</v>
+      </c>
+      <c r="AJ11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AK11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AL11">
+        <v>0.01</v>
+      </c>
+      <c r="AM11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO11">
+        <v>0.01</v>
+      </c>
+      <c r="AP11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+      <c r="J12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.01</v>
+      </c>
+      <c r="M12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N12">
+        <v>0.01</v>
+      </c>
+      <c r="O12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P12">
+        <v>0.01</v>
+      </c>
+      <c r="Q12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>0.01</v>
+      </c>
+      <c r="T12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U12">
+        <v>0.01</v>
+      </c>
+      <c r="V12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="X12">
+        <v>0.01</v>
+      </c>
+      <c r="Y12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AB12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD12">
+        <v>0.01</v>
+      </c>
+      <c r="AE12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AG12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AH12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AK12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AL12">
+        <v>0.01</v>
+      </c>
+      <c r="AM12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO12">
+        <v>0.01</v>
+      </c>
+      <c r="AP12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>410</v>
+      </c>
+      <c r="B13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+      <c r="M13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>0.01</v>
+      </c>
+      <c r="S13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.01</v>
+      </c>
+      <c r="X13">
+        <v>0.01</v>
+      </c>
+      <c r="Y13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z13">
+        <v>0.01</v>
+      </c>
+      <c r="AA13">
+        <v>0.01</v>
+      </c>
+      <c r="AB13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC13">
+        <v>0.01</v>
+      </c>
+      <c r="AD13">
+        <v>0.01</v>
+      </c>
+      <c r="AE13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AH13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AI13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AK13">
+        <v>0.01</v>
+      </c>
+      <c r="AL13">
+        <v>0.01</v>
+      </c>
+      <c r="AM13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>420</v>
+      </c>
+      <c r="B14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.01</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.01</v>
+      </c>
+      <c r="I14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V14">
+        <v>0.01</v>
+      </c>
+      <c r="W14">
+        <v>0.01</v>
+      </c>
+      <c r="X14">
+        <v>0.01</v>
+      </c>
+      <c r="Y14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AB14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AC14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AD14">
+        <v>0.01</v>
+      </c>
+      <c r="AE14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AH14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AI14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AK14">
+        <v>0.01</v>
+      </c>
+      <c r="AL14">
+        <v>0.01</v>
+      </c>
+      <c r="AM14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>430</v>
+      </c>
+      <c r="B15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.01</v>
+      </c>
+      <c r="E15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.01</v>
+      </c>
+      <c r="K15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.01</v>
+      </c>
+      <c r="M15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="X15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AA15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AB15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AC15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AD15">
+        <v>0.01</v>
+      </c>
+      <c r="AE15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AH15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AJ15">
+        <v>0.01</v>
+      </c>
+      <c r="AK15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AL15">
+        <v>0.01</v>
+      </c>
+      <c r="AM15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>440</v>
+      </c>
+      <c r="B16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AA16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AC16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD16">
+        <v>0.01</v>
+      </c>
+      <c r="AE16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AJ16">
+        <v>0.01</v>
+      </c>
+      <c r="AK16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AL16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>450</v>
+      </c>
+      <c r="B17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>0.01</v>
+      </c>
+      <c r="K17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD17">
+        <v>0.01</v>
+      </c>
+      <c r="AE17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AJ17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AL17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>460</v>
+      </c>
+      <c r="B18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R18">
+        <v>0.01</v>
+      </c>
+      <c r="S18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AE18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>470</v>
+      </c>
+      <c r="B19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R19">
+        <v>0.01</v>
+      </c>
+      <c r="S19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="X19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AE19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AK19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AL19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>480</v>
+      </c>
+      <c r="B20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R20">
+        <v>0.01</v>
+      </c>
+      <c r="S20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="X20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Z20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AL20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AM20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AN20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AO20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>490</v>
+      </c>
+      <c r="B21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AK21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AL21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AM21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AN21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AO21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K22">
+        <v>0.01</v>
+      </c>
+      <c r="L22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AI22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AJ22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AK22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AL22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AN22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AO22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AP22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>